--- a/Docs/Testing (TES)/Test_Cases/TS_Auth.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Auth.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
   <si>
     <t>N</t>
   </si>
@@ -250,6 +250,33 @@
 5. Ввести в поле для ввода пароля "123456"
 6. Нажать на кнопку "Enter"
 7. Убедиться, что мы вошли в "Личный кабинет"</t>
+  </si>
+  <si>
+    <t>ver 1.1</t>
+  </si>
+  <si>
+    <t>Gorshkov</t>
+  </si>
+  <si>
+    <t>Auth</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass</t>
+  </si>
+  <si>
+    <t>1. Fail
+2. Fail
+3. Fail</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>#129</t>
   </si>
 </sst>
 </file>
@@ -383,8 +410,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I23"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -687,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1007,15 +1034,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
@@ -1054,16 +1082,523 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>I2</f>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A23" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="str">
+        <f t="shared" ref="I4:I23" si="1">I3</f>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing (TES)/Test_Cases/TS_Auth.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Auth.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="76">
   <si>
     <t>N</t>
   </si>
@@ -277,6 +277,45 @@
   </si>
   <si>
     <t>#129</t>
+  </si>
+  <si>
+    <t>1. Blocked
+2. Blocked
+3. Blocked
+4. Blocked
+5. Blocked
+6. Blocked</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>1. Blocked
+2. Blocked
+3. Blocked</t>
+  </si>
+  <si>
+    <t>1. Blocked
+2. Blocked</t>
+  </si>
+  <si>
+    <t>1. Blocked
+2. Blocked
+3. Blocked
+4. Blocked
+5. Blocked
+6. Blocked
+7. Blocked
+8. Blocked</t>
+  </si>
+  <si>
+    <t>1. Blocked
+2. Blocked
+3. Blocked
+4. Blocked
+5. Blocked
+6. Blocked
+7. Blocked</t>
   </si>
 </sst>
 </file>
@@ -410,8 +449,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I14" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I14"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -714,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1034,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H17" sqref="H14:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1140,462 +1179,351 @@
         <v>ver 1.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="90">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A23" si="0">A3+1</f>
+        <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="I4" s="1" t="str">
-        <f t="shared" ref="I4:I23" si="1">I3</f>
+        <f t="shared" ref="I4:I14" si="1">I3</f>
         <v>ver 1.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>H4</f>
+        <v>#129</v>
+      </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ver 1.1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>H5</f>
+        <v>#129</v>
+      </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ver 1.1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="90">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>H6</f>
+        <v>#129</v>
+      </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ver 1.1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ver 1.1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ver 1.1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>H9</f>
+        <v>#129</v>
+      </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ver 1.1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" ref="H11:H14" si="2">H10</f>
+        <v>#129</v>
+      </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ver 1.1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="120">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#129</v>
+      </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ver 1.1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="105">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#129</v>
+      </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ver 1.1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="105">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#129</v>
+      </c>
       <c r="I14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ver 1.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ver 1.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ver 1.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ver 1.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ver 1.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ver 1.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ver 1.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ver 1.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ver 1.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ver 1.1</v>
       </c>
